--- a/data/trans_bre/P26-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P26-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.716372765102791</v>
+        <v>6.953138184327144</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.463792720048511</v>
+        <v>4.11787270302524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.593759392894301</v>
+        <v>-5.191432777874713</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.717258623159625</v>
+        <v>-4.809321077496392</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2838806677689591</v>
+        <v>0.2948970799748684</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1524867266014321</v>
+        <v>0.1474805196010441</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2340012716807101</v>
+        <v>-0.2136600484362887</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3228720657605377</v>
+        <v>-0.3354477521820288</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.32368952677973</v>
+        <v>14.54086168134175</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.95685582999615</v>
+        <v>12.46830194657525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.239606245327071</v>
+        <v>3.094059267999695</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.545569036580816</v>
+        <v>2.788194480083666</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.710695489236846</v>
+        <v>0.7220766562409386</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4996409205427671</v>
+        <v>0.5347625209545784</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1649389023392185</v>
+        <v>0.1563661951515208</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2604512687443679</v>
+        <v>0.2930676663253884</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.006638882438123</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.726279066749766</v>
+        <v>3.726279066749769</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2793253006745009</v>
@@ -749,7 +749,7 @@
         <v>0.1090857834893895</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3162339873057398</v>
+        <v>0.31623398730574</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.967450974670148</v>
+        <v>5.691878980797703</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.008561307103293</v>
+        <v>4.242224883183949</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4340738670672471</v>
+        <v>-0.162049999961645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.591585552541847</v>
+        <v>1.500902484699099</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1706810189867236</v>
+        <v>0.158126746075212</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1027106109634856</v>
+        <v>0.1091623183601637</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0139801107197989</v>
+        <v>-0.005575610746660188</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1162788873182675</v>
+        <v>0.1182283964040093</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>12.65766422366954</v>
+        <v>12.61985093853676</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.89808917481831</v>
+        <v>11.00803045992954</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.762167186029684</v>
+        <v>5.878006723884058</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.143916101429711</v>
+        <v>5.892492850288291</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4032730220848971</v>
+        <v>0.3973527255735905</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3098084523392428</v>
+        <v>0.3097631739496496</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2182750497022179</v>
+        <v>0.2235943908468169</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5996044707711821</v>
+        <v>0.5629758804985243</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.221644220036881</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8405357490547314</v>
+        <v>0.8405357490547327</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1185097681957626</v>
@@ -849,7 +849,7 @@
         <v>0.1104367965952841</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.08261577312484024</v>
+        <v>0.08261577312484038</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.13257498362875</v>
+        <v>-2.657062059164395</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.010656755469662</v>
+        <v>-7.478340527289803</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.783639279326975</v>
+        <v>-3.280589356088136</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.839247618814132</v>
+        <v>-3.180893339931256</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1113851625739226</v>
+        <v>-0.09254690829435391</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2153666352431265</v>
+        <v>-0.2338263264926541</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1215953221340749</v>
+        <v>-0.134582997635937</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2355568441851314</v>
+        <v>-0.2558381446571539</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.390858347919247</v>
+        <v>9.336629108297478</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.715672258816793</v>
+        <v>6.1945356063952</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.655315641253218</v>
+        <v>7.355559080835654</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.479677142431103</v>
+        <v>4.413728806763273</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3622820734546167</v>
+        <v>0.4084343761432232</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2115917324098461</v>
+        <v>0.246957146146647</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4357550768021949</v>
+        <v>0.4257959722505628</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5382644933354733</v>
+        <v>0.5567727919482071</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.05997566545389309</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1939620549348136</v>
+        <v>0.1939620549348135</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.768666929451219</v>
+        <v>6.119444654684195</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.435680786126153</v>
+        <v>3.585801083740461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.7452402310731396</v>
+        <v>-0.9071437401077566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3666322183028631</v>
+        <v>0.3436327091919438</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.193870582212112</v>
+        <v>0.2060702791700034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1022023627227449</v>
+        <v>0.1034725041338638</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.02782071700774732</v>
+        <v>-0.0337035902964089</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02355847297189152</v>
+        <v>0.02609675840827734</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.78018749237298</v>
+        <v>10.65198684126559</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.247640248562416</v>
+        <v>8.355942746384624</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.769340487221161</v>
+        <v>3.610901244456689</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.968412772473606</v>
+        <v>4.042136585761345</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3898549746126782</v>
+        <v>0.3850597884228764</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2602668744335547</v>
+        <v>0.2610814249782052</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1597428651565708</v>
+        <v>0.1485951242930284</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3740442612958511</v>
+        <v>0.3904353881303807</v>
       </c>
     </row>
     <row r="16">
